--- a/xlsx_files/Race18.xlsx
+++ b/xlsx_files/Race18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC055161-54FD-4047-8434-30AD85C3DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB9DD67-4635-4001-9C87-82197E74A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Track Name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>02:18.10700</t>
+  </si>
+  <si>
+    <t>02:17.6720</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1">
-        <v>44845</v>
+        <v>44840</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -640,11 +643,17 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
